--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3850150.76915382</v>
+        <v>3847898.689442614</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>83.41943806107113</v>
+        <v>143.065997761737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846284</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>219.3035610833823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>104.5702261485543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>9.59580281112777</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.38185492767447</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697872</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>71.98153210089556</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187894</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1686991936182</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>42.53134576113945</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1987.713327533092</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040977</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1628.178203944122</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.087073040097</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.318417769983</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.798574724517</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.833068744076</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>191.947818960828</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462285</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.58592980476</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.58592980476</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.483062930404</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.798574724517</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121634</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>198.027470314253</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708865</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429797</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429797</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429798</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429799</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.61519755786</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518381</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541323</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885521</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679634</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642673</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744656</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011261</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,13 +7193,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,7 +7652,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>62.35543909865073</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>138.494940240505</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>646676.4190500291</v>
+        <v>646676.419050029</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.662164964</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.662164964</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>2.291191206641758e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314473</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179335</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179353</v>
-      </c>
       <c r="L4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26522,46 +26522,46 @@
         <v>-726517.0276944548</v>
       </c>
       <c r="C6" t="n">
-        <v>602227.7180331375</v>
+        <v>602227.7180331377</v>
       </c>
       <c r="D6" t="n">
-        <v>602227.7180331375</v>
+        <v>602227.7180331383</v>
       </c>
       <c r="E6" t="n">
-        <v>349265.9108147</v>
+        <v>349231.1728892642</v>
       </c>
       <c r="F6" t="n">
-        <v>674678.3726220554</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="G6" t="n">
-        <v>674678.3726220554</v>
+        <v>674643.6346966197</v>
       </c>
       <c r="H6" t="n">
-        <v>674678.3726220549</v>
+        <v>674643.6346966192</v>
       </c>
       <c r="I6" t="n">
-        <v>674678.3726220552</v>
+        <v>674643.6346966195</v>
       </c>
       <c r="J6" t="n">
-        <v>457147.1702247776</v>
+        <v>457112.4322993422</v>
       </c>
       <c r="K6" t="n">
-        <v>674678.372622055</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="L6" t="n">
-        <v>674678.3726220551</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="M6" t="n">
-        <v>589623.3446865433</v>
+        <v>589588.6067611076</v>
       </c>
       <c r="N6" t="n">
-        <v>674678.3726220549</v>
+        <v>674643.6346966195</v>
       </c>
       <c r="O6" t="n">
-        <v>674678.3726220551</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.3726220552</v>
+        <v>674643.6346966192</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>286.3116626173979</v>
+        <v>226.665102916732</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.3554362891111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825447</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.4486973867526</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>147.5674171752737</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>276.9271955254632</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.3519867358061</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>117.7874932305463</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.011302546020559e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.011302546020559e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955534</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>191.332301678856</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35820,10 +35820,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156792</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>59.99058959552271</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
